--- a/notebooks/UMOD/input/UMOD_ADTKD1_individuals.xlsx
+++ b/notebooks/UMOD/input/UMOD_ADTKD1_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/UMOD/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B635BE6C-2275-C64F-BBDD-16D987B3617F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EDDEFC8-0C00-4849-99CC-2A8FA0A92C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="2560" windowWidth="36140" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3580" yWindow="2560" windowWidth="65220" windowHeight="20280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1783,7 +1783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1805,9 +1805,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2115,8 +2112,8 @@
   <dimension ref="A1:AW209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A210" sqref="A210:XFD210"/>
+      <pane ySplit="1" topLeftCell="A177" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2217,7 +2214,7 @@
       <c r="AD1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="AF1" s="3" t="s">
@@ -2424,7 +2421,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2546,7 +2543,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2611,7 +2608,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>66</v>
       </c>
@@ -2733,7 +2730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -2846,7 +2843,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -2959,7 +2956,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -3060,7 +3057,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>114</v>
       </c>
@@ -3159,7 +3156,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="10" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -3258,7 +3255,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>114</v>
       </c>
@@ -3357,7 +3354,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -3456,7 +3453,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>114</v>
       </c>
@@ -3555,7 +3552,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>114</v>
       </c>
@@ -3654,7 +3651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>114</v>
       </c>
@@ -3753,7 +3750,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>114</v>
       </c>
@@ -3857,7 +3854,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>114</v>
       </c>
@@ -3959,7 +3956,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>147</v>
       </c>
@@ -4029,7 +4026,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>147</v>
       </c>
@@ -4094,7 +4091,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>147</v>
       </c>
@@ -4159,7 +4156,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="21" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>147</v>
       </c>
@@ -4224,7 +4221,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>147</v>
       </c>
@@ -4289,7 +4286,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>147</v>
       </c>
@@ -4354,7 +4351,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -4419,7 +4416,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>147</v>
       </c>
@@ -4484,7 +4481,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>147</v>
       </c>
@@ -4549,7 +4546,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>147</v>
       </c>
@@ -4614,7 +4611,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>147</v>
       </c>
@@ -4679,7 +4676,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>147</v>
       </c>
@@ -4747,7 +4744,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>147</v>
       </c>
@@ -4812,7 +4809,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="31" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>147</v>
       </c>
@@ -4877,7 +4874,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:49" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>147</v>
       </c>
@@ -4942,7 +4939,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>147</v>
       </c>
@@ -5007,7 +5004,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="34" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>147</v>
       </c>
@@ -5072,7 +5069,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>147</v>
       </c>
@@ -5137,7 +5134,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="36" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -5205,7 +5202,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -5270,7 +5267,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -5335,7 +5332,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -5397,7 +5394,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>147</v>
       </c>
@@ -5456,7 +5453,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="41" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -5521,7 +5518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>147</v>
       </c>
@@ -5589,7 +5586,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="43" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>147</v>
       </c>
@@ -5654,7 +5651,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>147</v>
       </c>
@@ -5722,7 +5719,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="45" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>147</v>
       </c>
@@ -5790,7 +5787,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="46" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>147</v>
       </c>
@@ -5858,7 +5855,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>147</v>
       </c>
@@ -5926,7 +5923,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>147</v>
       </c>
@@ -5991,7 +5988,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>147</v>
       </c>
@@ -6056,7 +6053,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>147</v>
       </c>
@@ -6121,7 +6118,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>147</v>
       </c>
@@ -6186,7 +6183,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="52" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>147</v>
       </c>
@@ -6251,7 +6248,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="53" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>147</v>
       </c>
@@ -6316,7 +6313,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>147</v>
       </c>
@@ -6381,7 +6378,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>147</v>
       </c>
@@ -6449,7 +6446,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="56" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>147</v>
       </c>
@@ -6517,7 +6514,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="57" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>245</v>
       </c>
@@ -6597,7 +6594,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>245</v>
       </c>
@@ -6674,7 +6671,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="59" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>254</v>
       </c>
@@ -6758,7 +6755,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="60" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>254</v>
       </c>
@@ -6840,7 +6837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>254</v>
       </c>
@@ -6922,7 +6919,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>254</v>
       </c>
@@ -7006,7 +7003,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>254</v>
       </c>
@@ -7088,7 +7085,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>254</v>
       </c>
@@ -7170,7 +7167,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>254</v>
       </c>
@@ -7254,7 +7251,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="66" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>254</v>
       </c>
@@ -7336,7 +7333,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="67" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>254</v>
       </c>
@@ -7418,7 +7415,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>254</v>
       </c>
@@ -7500,7 +7497,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>254</v>
       </c>
@@ -7582,7 +7579,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="70" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>254</v>
       </c>
@@ -7664,7 +7661,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="71" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>276</v>
       </c>
@@ -7757,7 +7754,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="72" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>276</v>
       </c>
@@ -7828,7 +7825,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>286</v>
       </c>
@@ -7917,7 +7914,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="74" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>286</v>
       </c>
@@ -8003,7 +8000,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="75" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>286</v>
       </c>
@@ -8080,7 +8077,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="76" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>295</v>
       </c>
@@ -8148,7 +8145,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>295</v>
       </c>
@@ -8219,7 +8216,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="78" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>295</v>
       </c>
@@ -8287,7 +8284,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>295</v>
       </c>
@@ -8355,7 +8352,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="80" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>295</v>
       </c>
@@ -8423,7 +8420,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="81" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>295</v>
       </c>
@@ -8491,7 +8488,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>295</v>
       </c>
@@ -8559,7 +8556,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>295</v>
       </c>
@@ -8627,7 +8624,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>295</v>
       </c>
@@ -8695,7 +8692,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="85" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>295</v>
       </c>
@@ -8763,7 +8760,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>295</v>
       </c>
@@ -8831,7 +8828,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="87" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>295</v>
       </c>
@@ -8899,7 +8896,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="88" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>295</v>
       </c>
@@ -8967,7 +8964,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="89" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>295</v>
       </c>
@@ -9038,7 +9035,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="90" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>295</v>
       </c>
@@ -9106,7 +9103,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="91" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>295</v>
       </c>
@@ -9174,7 +9171,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>295</v>
       </c>
@@ -9242,7 +9239,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>327</v>
       </c>
@@ -9334,7 +9331,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="94" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>332</v>
       </c>
@@ -9407,7 +9404,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>332</v>
       </c>
@@ -9478,7 +9475,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="96" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>332</v>
       </c>
@@ -9549,7 +9546,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>332</v>
       </c>
@@ -9620,7 +9617,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="98" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>332</v>
       </c>
@@ -9691,7 +9688,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="99" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>332</v>
       </c>
@@ -9762,7 +9759,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="100" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>332</v>
       </c>
@@ -9833,7 +9830,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>332</v>
       </c>
@@ -9904,7 +9901,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>332</v>
       </c>
@@ -9975,7 +9972,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="103" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>332</v>
       </c>
@@ -10046,7 +10043,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="104" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>332</v>
       </c>
@@ -10117,7 +10114,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>366</v>
       </c>
@@ -10215,7 +10212,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>371</v>
       </c>
@@ -10283,7 +10280,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="107" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>375</v>
       </c>
@@ -10357,7 +10354,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="108" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>380</v>
       </c>
@@ -10434,7 +10431,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="109" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>385</v>
       </c>
@@ -10496,7 +10493,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="110" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>385</v>
       </c>
@@ -10552,7 +10549,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="111" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>385</v>
       </c>
@@ -10608,7 +10605,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="112" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>385</v>
       </c>
@@ -10664,7 +10661,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="113" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>385</v>
       </c>
@@ -10720,7 +10717,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="114" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>385</v>
       </c>
@@ -10779,7 +10776,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="115" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>385</v>
       </c>
@@ -10835,7 +10832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="116" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>385</v>
       </c>
@@ -10891,7 +10888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="117" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>380</v>
       </c>
@@ -10947,7 +10944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="118" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>385</v>
       </c>
@@ -11003,7 +11000,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="119" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>385</v>
       </c>
@@ -11059,7 +11056,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="120" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>385</v>
       </c>
@@ -11115,7 +11112,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="121" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>385</v>
       </c>
@@ -11171,7 +11168,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="122" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>385</v>
       </c>
@@ -11227,7 +11224,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="123" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>385</v>
       </c>
@@ -11286,7 +11283,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="124" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>385</v>
       </c>
@@ -11345,7 +11342,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="125" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>385</v>
       </c>
@@ -11401,7 +11398,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="126" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>380</v>
       </c>
@@ -11460,7 +11457,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>385</v>
       </c>
@@ -11516,7 +11513,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="128" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>385</v>
       </c>
@@ -11575,7 +11572,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>385</v>
       </c>
@@ -11631,7 +11628,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="130" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>385</v>
       </c>
@@ -11687,7 +11684,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="131" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>380</v>
       </c>
@@ -11743,7 +11740,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="132" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>385</v>
       </c>
@@ -11802,7 +11799,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="133" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>385</v>
       </c>
@@ -11858,7 +11855,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="134" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>385</v>
       </c>
@@ -11914,7 +11911,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="135" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>385</v>
       </c>
@@ -11970,7 +11967,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="136" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>385</v>
       </c>
@@ -12026,7 +12023,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="137" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>385</v>
       </c>
@@ -12082,7 +12079,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="138" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>429</v>
       </c>
@@ -12157,7 +12154,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="139" spans="1:48" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:48" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>429</v>
       </c>
@@ -12219,7 +12216,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="140" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>434</v>
       </c>
@@ -12284,7 +12281,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="141" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>439</v>
       </c>
@@ -12358,7 +12355,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="142" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>439</v>
       </c>
@@ -12429,7 +12426,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="143" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>439</v>
       </c>
@@ -12500,7 +12497,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="144" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>439</v>
       </c>
@@ -12574,7 +12571,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="145" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>439</v>
       </c>
@@ -12648,7 +12645,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="146" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>439</v>
       </c>
@@ -12719,7 +12716,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="147" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>439</v>
       </c>
@@ -12793,7 +12790,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="148" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>439</v>
       </c>
@@ -12867,7 +12864,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="149" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>439</v>
       </c>
@@ -12941,7 +12938,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="150" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>439</v>
       </c>
@@ -13015,7 +13012,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="151" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>439</v>
       </c>
@@ -13089,7 +13086,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="152" spans="1:48" s="11" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:48" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
         <v>455</v>
       </c>
@@ -13145,7 +13142,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="153" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>455</v>
       </c>
@@ -13198,7 +13195,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="154" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>455</v>
       </c>
@@ -13264,7 +13261,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="155" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>455</v>
       </c>
@@ -13323,7 +13320,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="156" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>455</v>
       </c>
@@ -13382,7 +13379,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="157" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>464</v>
       </c>
@@ -13450,7 +13447,7 @@
       </c>
       <c r="AV157" s="1"/>
     </row>
-    <row r="158" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>464</v>
       </c>
@@ -13519,7 +13516,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="159" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>464</v>
       </c>
@@ -13594,7 +13591,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="160" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>464</v>
       </c>
@@ -13664,7 +13661,7 @@
       </c>
       <c r="AV160" s="1"/>
     </row>
-    <row r="161" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>464</v>
       </c>
@@ -13730,7 +13727,7 @@
       </c>
       <c r="AV161" s="1"/>
     </row>
-    <row r="162" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>464</v>
       </c>
@@ -13800,7 +13797,7 @@
       </c>
       <c r="AV162" s="1"/>
     </row>
-    <row r="163" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>464</v>
       </c>
@@ -13866,7 +13863,7 @@
       </c>
       <c r="AV163" s="1"/>
     </row>
-    <row r="164" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>464</v>
       </c>
@@ -13932,7 +13929,7 @@
       </c>
       <c r="AV164" s="1"/>
     </row>
-    <row r="165" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>479</v>
       </c>
@@ -14016,7 +14013,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>482</v>
       </c>
@@ -14094,7 +14091,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="167" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>482</v>
       </c>
@@ -14169,7 +14166,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>482</v>
       </c>
@@ -14244,7 +14241,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>482</v>
       </c>
@@ -14322,7 +14319,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="170" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>482</v>
       </c>
@@ -14397,7 +14394,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="171" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>482</v>
       </c>
@@ -14474,7 +14471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>482</v>
       </c>
@@ -14552,7 +14549,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>482</v>
       </c>
@@ -14627,7 +14624,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="174" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>482</v>
       </c>
@@ -14702,7 +14699,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>493</v>
       </c>
@@ -14783,7 +14780,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="176" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>493</v>
       </c>
@@ -14845,7 +14842,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="177" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>493</v>
       </c>
@@ -14907,7 +14904,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="178" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>500</v>
       </c>
@@ -14990,7 +14987,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="179" spans="1:48" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:48" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>500</v>
       </c>
